--- a/test/tmp/image_sample.xlsx
+++ b/test/tmp/image_sample.xlsx
@@ -50,25 +50,69 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5724525" cy="4572000"/>
+    <xdr:ext cx="4762500" cy="4762500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Image_1731256540810.jpg"/>
+        <xdr:cNvPr id="2" name="Image_1731258857029.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rIdb9dcabc2-d1ca-4cba-be21-082d5192d954">
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="95250"/>
+          <a:ext cx="4762500" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2209800" cy="2286000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image_1731258857047.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -76,7 +120,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5724525" cy="4572000"/>
+          <a:ext cx="2209800" cy="2286000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>

--- a/test/tmp/image_sample.xlsx
+++ b/test/tmp/image_sample.xlsx
@@ -61,7 +61,7 @@
     <xdr:ext cx="4762500" cy="4762500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image_1731258857029.jpg">
+        <xdr:cNvPr id="2" name="Image_1731288286294.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
@@ -73,7 +73,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -100,7 +100,7 @@
     <xdr:ext cx="2209800" cy="2286000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image_1731258857047.jpg">
+        <xdr:cNvPr id="3" name="Image_1731288286315.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
@@ -112,7 +112,124 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2209800" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2209800" cy="2286000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image_1731288286325.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2209800" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2209800" cy="2286000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image_1731288286335.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2209800" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2209800" cy="2286000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image_1731288286343.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
